--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H2">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I2">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J2">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N2">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O2">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P2">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q2">
-        <v>44.17811897034667</v>
+        <v>72.62553828989999</v>
       </c>
       <c r="R2">
-        <v>397.60307073312</v>
+        <v>653.6298446090999</v>
       </c>
       <c r="S2">
-        <v>0.02664455357292055</v>
+        <v>0.04557770717753606</v>
       </c>
       <c r="T2">
-        <v>0.02664455357292055</v>
+        <v>0.04557770717753604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H3">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I3">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J3">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>161.224525</v>
       </c>
       <c r="O3">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P3">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q3">
-        <v>90.23263738976667</v>
+        <v>100.7350179143</v>
       </c>
       <c r="R3">
-        <v>812.0937365079</v>
+        <v>906.6151612287</v>
       </c>
       <c r="S3">
-        <v>0.05442079466016446</v>
+        <v>0.06321841127971813</v>
       </c>
       <c r="T3">
-        <v>0.05442079466016446</v>
+        <v>0.06321841127971811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H4">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I4">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J4">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N4">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O4">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P4">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q4">
-        <v>24.03038632828667</v>
+        <v>32.58673558558</v>
       </c>
       <c r="R4">
-        <v>216.27347695458</v>
+        <v>293.28062027022</v>
       </c>
       <c r="S4">
-        <v>0.01449312308502273</v>
+        <v>0.02045050167425622</v>
       </c>
       <c r="T4">
-        <v>0.01449312308502273</v>
+        <v>0.02045050167425622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H5">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I5">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J5">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N5">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O5">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P5">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q5">
-        <v>36.90248929131599</v>
+        <v>23.857137863672</v>
       </c>
       <c r="R5">
-        <v>332.1224036218439</v>
+        <v>214.714240773048</v>
       </c>
       <c r="S5">
-        <v>0.02225650108725941</v>
+        <v>0.01497205623873177</v>
       </c>
       <c r="T5">
-        <v>0.02225650108725941</v>
+        <v>0.01497205623873177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9.593937</v>
       </c>
       <c r="I6">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J6">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N6">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O6">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P6">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q6">
-        <v>84.14513816856002</v>
+        <v>123.906575799225</v>
       </c>
       <c r="R6">
-        <v>757.3062435170401</v>
+        <v>1115.159182193025</v>
       </c>
       <c r="S6">
-        <v>0.05074932328689426</v>
+        <v>0.07776021716500835</v>
       </c>
       <c r="T6">
-        <v>0.05074932328689426</v>
+        <v>0.07776021716500833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9.593937</v>
       </c>
       <c r="I7">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J7">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>161.224525</v>
       </c>
       <c r="O7">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P7">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q7">
         <v>171.864215078325</v>
@@ -883,10 +883,10 @@
         <v>1546.777935704925</v>
       </c>
       <c r="S7">
-        <v>0.1036541480862067</v>
+        <v>0.1078570576354176</v>
       </c>
       <c r="T7">
-        <v>0.1036541480862067</v>
+        <v>0.1078570576354176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9.593937</v>
       </c>
       <c r="I8">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J8">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N8">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O8">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P8">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q8">
-        <v>45.770173673415</v>
+        <v>55.596294608745</v>
       </c>
       <c r="R8">
-        <v>411.931563060735</v>
+        <v>500.366651478705</v>
       </c>
       <c r="S8">
-        <v>0.02760474807226982</v>
+        <v>0.03489064171502054</v>
       </c>
       <c r="T8">
-        <v>0.02760474807226982</v>
+        <v>0.03489064171502053</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>9.593937</v>
       </c>
       <c r="I9">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J9">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N9">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O9">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P9">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q9">
-        <v>70.28739866144699</v>
+        <v>40.702710515658</v>
       </c>
       <c r="R9">
-        <v>632.5865879530229</v>
+        <v>366.324394640922</v>
       </c>
       <c r="S9">
-        <v>0.04239149159775674</v>
+        <v>0.02554385502534266</v>
       </c>
       <c r="T9">
-        <v>0.04239149159775675</v>
+        <v>0.02554385502534266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.454888</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H10">
-        <v>22.364664</v>
+        <v>20.475868</v>
       </c>
       <c r="I10">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J10">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N10">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O10">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P10">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q10">
-        <v>196.1528142589867</v>
+        <v>264.4477121745667</v>
       </c>
       <c r="R10">
-        <v>1765.37532833088</v>
+        <v>2380.0294095711</v>
       </c>
       <c r="S10">
-        <v>0.1183030036093385</v>
+        <v>0.165959807983109</v>
       </c>
       <c r="T10">
-        <v>0.1183030036093384</v>
+        <v>0.165959807983109</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.454888</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H11">
-        <v>22.364664</v>
+        <v>20.475868</v>
       </c>
       <c r="I11">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J11">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>161.224525</v>
       </c>
       <c r="O11">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P11">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q11">
-        <v>400.6369255760667</v>
+        <v>366.8013435847445</v>
       </c>
       <c r="R11">
-        <v>3605.7323301846</v>
+        <v>3301.2120922627</v>
       </c>
       <c r="S11">
-        <v>0.2416307501450402</v>
+        <v>0.2301940147210893</v>
       </c>
       <c r="T11">
-        <v>0.2416307501450401</v>
+        <v>0.2301940147210893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.454888</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H12">
-        <v>22.364664</v>
+        <v>20.475868</v>
       </c>
       <c r="I12">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J12">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N12">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O12">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P12">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q12">
-        <v>106.6959847065467</v>
+        <v>118.6564378834022</v>
       </c>
       <c r="R12">
-        <v>960.2638623589201</v>
+        <v>1067.90794095062</v>
       </c>
       <c r="S12">
-        <v>0.06435011147571246</v>
+        <v>0.07446538102053975</v>
       </c>
       <c r="T12">
-        <v>0.06435011147571244</v>
+        <v>0.07446538102053975</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.454888</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H13">
-        <v>22.364664</v>
+        <v>20.475868</v>
       </c>
       <c r="I13">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J13">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N13">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O13">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P13">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q13">
-        <v>163.848694701384</v>
+        <v>86.86979367915646</v>
       </c>
       <c r="R13">
-        <v>1474.638252312456</v>
+        <v>781.8281431124082</v>
       </c>
       <c r="S13">
-        <v>0.09881985529430232</v>
+        <v>0.05451699377534509</v>
       </c>
       <c r="T13">
-        <v>0.09881985529430232</v>
+        <v>0.05451699377534509</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.919382666666667</v>
+        <v>1.099475</v>
       </c>
       <c r="H14">
-        <v>5.758148</v>
+        <v>3.298425</v>
       </c>
       <c r="I14">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888541</v>
       </c>
       <c r="J14">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888539</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N14">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O14">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P14">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q14">
-        <v>50.50274554179556</v>
+        <v>42.599461230625</v>
       </c>
       <c r="R14">
-        <v>454.5247098761601</v>
+        <v>383.3951510756249</v>
       </c>
       <c r="S14">
-        <v>0.03045904036953584</v>
+        <v>0.0267342014339361</v>
       </c>
       <c r="T14">
-        <v>0.03045904036953585</v>
+        <v>0.02673420143393609</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.919382666666667</v>
+        <v>1.099475</v>
       </c>
       <c r="H15">
-        <v>5.758148</v>
+        <v>3.298425</v>
       </c>
       <c r="I15">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888541</v>
       </c>
       <c r="J15">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888539</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>161.224525</v>
       </c>
       <c r="O15">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P15">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q15">
-        <v>103.1505195755222</v>
+        <v>59.08744487479167</v>
       </c>
       <c r="R15">
-        <v>928.3546761797</v>
+        <v>531.7870038731249</v>
       </c>
       <c r="S15">
-        <v>0.06221178286810669</v>
+        <v>0.03708158760382754</v>
       </c>
       <c r="T15">
-        <v>0.0622117828681067</v>
+        <v>0.03708158760382753</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.919382666666667</v>
+        <v>1.099475</v>
       </c>
       <c r="H16">
-        <v>5.758148</v>
+        <v>3.298425</v>
       </c>
       <c r="I16">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888541</v>
       </c>
       <c r="J16">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888539</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N16">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O16">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P16">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q16">
-        <v>27.47062379054889</v>
+        <v>19.11417680195833</v>
       </c>
       <c r="R16">
-        <v>247.23561411494</v>
+        <v>172.027591217625</v>
       </c>
       <c r="S16">
-        <v>0.01656798714676199</v>
+        <v>0.01199550975776333</v>
       </c>
       <c r="T16">
-        <v>0.01656798714676199</v>
+        <v>0.01199550975776332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.919382666666667</v>
+        <v>1.099475</v>
       </c>
       <c r="H17">
-        <v>5.758148</v>
+        <v>3.298425</v>
       </c>
       <c r="I17">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888541</v>
       </c>
       <c r="J17">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888539</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N17">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O17">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P17">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q17">
-        <v>42.18552238018799</v>
+        <v>13.99371685811667</v>
       </c>
       <c r="R17">
-        <v>379.669701421692</v>
+        <v>125.94345172305</v>
       </c>
       <c r="S17">
-        <v>0.02544278564270745</v>
+        <v>0.008782055793358437</v>
       </c>
       <c r="T17">
-        <v>0.02544278564270746</v>
+        <v>0.008782055793358435</v>
       </c>
     </row>
   </sheetData>
